--- a/file/description/moa.xlsx
+++ b/file/description/moa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manage\mainproject\moa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manage\mainproject\moa\file\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1EF1C8-6B35-40C5-8635-561A59012915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9277FD-0E5A-482A-AD77-E9BCD5AEA4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="864" windowWidth="14244" windowHeight="10920" activeTab="1" xr2:uid="{7E3A86AB-0D8E-4E15-BC29-72AAC41F35C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3A86AB-0D8E-4E15-BC29-72AAC41F35C6}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
@@ -563,12 +563,941 @@
         </r>
       </text>
     </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{C6F85EE8-25AE-4E46-BC74-F9BAA793B72D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프로젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합침</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{3DDFCFEA-128F-441A-B487-53F1CD1AA123}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타임리프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> elvis </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>문법이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ? </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{76F58DBA-8E35-4DBD-A240-AA0F9ED40655}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관리자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>밑그림</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> pptx</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">안내함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dto </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폴더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만듬
+프로젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합침</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{639382F7-B548-4475-A721-D72526A71DAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>페이지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자동으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>페이지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나중에</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{2386DAFC-6EB2-46E2-BE24-297E2A9FA2E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+memberController </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> login, logout </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>함
+시큐리티</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설정중</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{13E15958-C1D5-41A8-A9AC-C42272221A07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프로젝트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합침</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{0D44421D-61B7-4676-98F1-154D5539E2B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+application-dev.properties
+db.properties</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+application.properties </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">은익
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>h2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> mysql</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>교체할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DB</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>배포하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않았으므로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> local</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하기위해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> root </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이용</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>기능</t>
   </si>
@@ -1007,6 +1936,31 @@
     <t>회의 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징 ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 추가 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분리, 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정파일 은닉
+DB 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1014,7 +1968,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="181" formatCode="[$-412]m\ &quot;/&quot;\ d\ ddd"/>
+    <numFmt numFmtId="177" formatCode="[$-412]m\ &quot;/&quot;\ d\ ddd"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1190,7 +2144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,7 +2154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1220,9 +2174,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1268,6 +2219,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1586,7 +2543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8390CC7-2EE6-42EC-A4ED-2FBD6CEBFB8D}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -1598,7 +2557,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1608,6 +2567,9 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -1634,6 +2596,9 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -1662,6 +2627,9 @@
       </c>
       <c r="C5" t="s">
         <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1787,35 +2755,54 @@
       </c>
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
       <c r="I16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" customHeight="1">
+    <row r="17" spans="1:11" ht="27" customHeight="1">
       <c r="A17" s="3">
         <v>45344</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="27" customHeight="1">
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="27" customHeight="1">
       <c r="A18" s="3">
         <v>45345</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="27" customHeight="1">
+      <c r="D18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="27" customHeight="1">
       <c r="A19" s="3">
         <v>45346</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="26" t="s">
+        <v>102</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" ht="27" customHeight="1">
+    <row r="20" spans="1:11" ht="27" customHeight="1">
       <c r="A20" s="3">
         <v>45347</v>
       </c>
@@ -1838,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5C261C-80B3-4CE7-AE5D-E4D9BDD696B6}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1846,30 +2833,30 @@
   <cols>
     <col min="1" max="1" width="19.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="12"/>
+    <col min="3" max="3" width="8.796875" style="11"/>
     <col min="4" max="5" width="8.796875" style="8"/>
-    <col min="6" max="6" width="8.796875" style="12"/>
+    <col min="6" max="6" width="8.796875" style="11"/>
     <col min="7" max="8" width="26.8984375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1878,19 +2865,19 @@
       <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" customHeight="1">
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1901,13 +2888,13 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1915,10 +2902,10 @@
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1926,10 +2913,10 @@
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1937,10 +2924,10 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1948,10 +2935,10 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1962,10 +2949,10 @@
       <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -1974,10 +2961,10 @@
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1988,13 +2975,13 @@
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2005,19 +2992,19 @@
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="28.8" customHeight="1">
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2028,10 +3015,10 @@
       <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2039,16 +3026,16 @@
       <c r="B15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="28.8" customHeight="1">
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2059,12 +3046,12 @@
       <c r="B18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" customHeight="1">
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2091,7 +3078,7 @@
       <c r="B22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2099,7 +3086,7 @@
       <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>83</v>
       </c>
     </row>

--- a/file/description/moa.xlsx
+++ b/file/description/moa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manage\mainproject\moa\file\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9277FD-0E5A-482A-AD77-E9BCD5AEA4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34003353-9581-43E0-969E-3255D83C2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3A86AB-0D8E-4E15-BC29-72AAC41F35C6}"/>
   </bookViews>
@@ -1165,7 +1165,776 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>합침</t>
+          <t xml:space="preserve">합침
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. session </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> memberForm</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> role, name </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">저장했음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2. bodyHeader</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> role </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비교하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방법</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">교체함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. preference </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안쓰는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메소드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삭제함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4. rolStr</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검새할때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>드롭박스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> '</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>컨트롤러로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>들어오는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> null </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아니고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈문자열</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">("") </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에러나서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> return </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시킴
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>검색</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메소드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>합쳐서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> controller, service, repository 
+6. Member.locked </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">추가
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7. login, logout </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분리함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> / </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기존</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>메소드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삭제</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">했음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">** </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시큐리티</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중
+메소드를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구현바람</t>
         </r>
       </text>
     </comment>
@@ -1489,6 +2258,234 @@
             <charset val="129"/>
           </rPr>
           <t>이용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O21" authorId="0" shapeId="0" xr:uid="{1D356B3B-EF92-4D0A-BCB2-92E4FBC7816C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pro:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>프로시저는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조회용이아니다
+리스트로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결과같은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나오는데</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>출력하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방법을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>모르겟음
+단건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조회는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순조로움
+애당초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>조회용은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">아니긴함
+</t>
         </r>
       </text>
     </comment>
@@ -1497,7 +2494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="152">
   <si>
     <t>기능</t>
   </si>
@@ -1571,10 +2568,6 @@
   </si>
   <si>
     <t>이재현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부하테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1959,6 +2952,205 @@
   <si>
     <t>설정파일 은닉
 DB 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRF 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRF 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요/ 싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저와 JPA의 성능 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 설명, 기획의도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개념공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB를 많이 찾는 로직 확인해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리(세션에서 -&gt; 시큐리티 변환: 설계 순서, 고도화의 어려움, 프로시저: 변수 이름 동일하면 안됌, 짧은로직은 큰 차이가 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못한거 APM 크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 코드 알려준거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트에서 충분히 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 기술을 썼는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 썼는지 다른 대안의 기술은 없었는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지를 어떤구성했는지 보안요소 어떻게 처리했는지(시큐리티)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임리프(동적페이지구성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS - WAS - DB : 3-tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 못했나 (개선점, 설계를 체계적으로 만들지 못하고 구현하면서 추가해서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">깃허브, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리는 깃허브에서 제공하는 projects를 사용했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Jiar, 오케스트라 는 마음속으로만 생각: 알고있어야한다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵져버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커멘더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어댑터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼사드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프록시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인패턴(생성, 구조, 행위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid 원칙 3. 스프링 핵심 원리 이해2 - 객체 지향 원리 적용 / 4. 스프링 컨테이너와 스프링 빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 자료는 캡쳐, 문서화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 환경, 컴퓨터 스팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리시간 : JPA &lt; Stored Procedure / 분석, 원인 파악 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이재현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저 만들어서 테스트</t>
+  </si>
+  <si>
+    <t>테스트와 동시에 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개념설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리트 흐름, 구체적으로 클래스 흐름, 어떤 설정옵션이 있는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-tier 간단하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임리프, sec 태그(html에서 security 함수 쓸수 있게 해줌 #Authentication(시큐리티의 기본객체)이랑 다름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPA 코드예시는 어렵다 (보여줄수는있다): 자바(Spring)로 DB를 다루는 방법 중 하나, 크게 4 + 1가지가 있다, JPQL, 데이터 저장 터티체크,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부트스트랩(커스텀까지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥먹은 후 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2144,7 +3336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2220,11 +3412,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2541,10 +3745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8390CC7-2EE6-42EC-A4ED-2FBD6CEBFB8D}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2558,18 +3762,18 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="21.6" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2579,7 +3783,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>5</v>
@@ -2589,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21.6" customHeight="1">
@@ -2597,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -2609,16 +3813,16 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21.6" customHeight="1">
@@ -2656,7 +3860,7 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="27" customHeight="1">
@@ -2665,7 +3869,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -2675,7 +3879,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -2685,7 +3889,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -2695,17 +3899,17 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3"/>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27" customHeight="1">
@@ -2716,7 +3920,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1">
@@ -2725,7 +3929,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -2736,7 +3940,7 @@
       <c r="B14" s="3"/>
       <c r="D14" s="3"/>
       <c r="I14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1">
@@ -2745,7 +3949,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2756,16 +3960,16 @@
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" customHeight="1">
       <c r="A17" s="3">
         <v>45344</v>
       </c>
@@ -2773,43 +3977,213 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="27" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27" customHeight="1">
       <c r="A18" s="3">
         <v>45345</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
         <v>100</v>
       </c>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="27" customHeight="1">
+    </row>
+    <row r="19" spans="1:15" ht="27" customHeight="1">
       <c r="A19" s="3">
         <v>45346</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="26" t="s">
-        <v>102</v>
+      <c r="C19" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="27" customHeight="1">
+    <row r="20" spans="1:15" ht="27" customHeight="1">
       <c r="A20" s="3">
         <v>45347</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
+      <c r="K20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="27" customHeight="1">
+      <c r="A21" s="3">
+        <v>45348</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="27" customHeight="1">
+      <c r="A22" s="3">
+        <v>45349</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="27" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" ht="27" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" ht="27" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:15" ht="27" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" ht="27" customHeight="1">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" ht="27" customHeight="1">
+      <c r="C28" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="27" customHeight="1"/>
+    <row r="30" spans="1:15" ht="27" customHeight="1">
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="27" customHeight="1">
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="27" customHeight="1">
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="27" customHeight="1">
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" ht="27" customHeight="1">
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="27" customHeight="1">
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" ht="27" customHeight="1"/>
+    <row r="37" spans="3:3" ht="27" customHeight="1"/>
+    <row r="38" spans="3:3" ht="27" customHeight="1"/>
+    <row r="39" spans="3:3" ht="27" customHeight="1"/>
+    <row r="40" spans="3:3" ht="27" customHeight="1"/>
+    <row r="41" spans="3:3" ht="27" customHeight="1"/>
+    <row r="42" spans="3:3" ht="27" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2823,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5C261C-80B3-4CE7-AE5D-E4D9BDD696B6}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" customHeight="1"/>
@@ -2842,19 +4216,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="28.8" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
       <c r="F1" s="18"/>
       <c r="G1" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="24"/>
     </row>
@@ -2863,22 +4237,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="25"/>
+      <c r="G2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" customHeight="1">
       <c r="G3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" customHeight="1">
@@ -2892,10 +4266,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" customHeight="1">
@@ -2903,10 +4277,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" customHeight="1">
@@ -2914,10 +4288,10 @@
         <v>14</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" customHeight="1">
@@ -2925,10 +4299,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" customHeight="1">
@@ -2936,168 +4310,318 @@
         <v>7</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="28.8" customHeight="1">
       <c r="G13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="G14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="28.8" customHeight="1">
       <c r="G16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" customHeight="1">
       <c r="G19" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" customHeight="1">
       <c r="G21" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="G22" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.8" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" customHeight="1">
+      <c r="B29" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" customHeight="1">
+      <c r="B31" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" customHeight="1">
+      <c r="B32" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B41" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B42" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B45" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B46" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B47" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B49" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B51" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B52" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B53" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B56" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B58" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B60" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B61" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B65" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="28.8" customHeight="1">
+      <c r="B68" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/file/description/moa.xlsx
+++ b/file/description/moa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manage\mainproject\moa\file\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34003353-9581-43E0-969E-3255D83C2384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBC798F-A157-4D40-A869-986BEACEBED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3A86AB-0D8E-4E15-BC29-72AAC41F35C6}"/>
   </bookViews>
@@ -2494,7 +2494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
   <si>
     <t>기능</t>
   </si>
@@ -3130,10 +3130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시큐리트 흐름, 구체적으로 클래스 흐름, 어떤 설정옵션이 있는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-tier 간단하게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3151,6 +3147,26 @@
   </si>
   <si>
     <t>밥먹은 후 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa의 @OrderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board는 다 알고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersistentBag,List,Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa + procedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시큐리트 흐름, 구체적으로 클래스 흐름, 어떤 설정옵션이 있는지(영상 추천: 개발자 유미)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3415,9 +3431,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3429,6 +3442,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3748,7 +3764,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4043,94 +4059,94 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="27" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:15" ht="27" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:15" ht="27" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:15" ht="27" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="1:15" ht="27" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="27"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:15" ht="27" customHeight="1">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>141</v>
       </c>
       <c r="D28" s="1"/>
@@ -4149,41 +4165,54 @@
         <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="27" customHeight="1">
       <c r="C31" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="27" customHeight="1">
       <c r="C32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="27" customHeight="1">
+        <v>146</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="27" customHeight="1">
       <c r="C33" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" ht="27" customHeight="1">
-      <c r="C34" t="s">
+      <c r="M33" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="27" customHeight="1">
+      <c r="M34" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="27" customHeight="1">
+      <c r="C35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="27" customHeight="1">
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" ht="27" customHeight="1"/>
-    <row r="37" spans="3:3" ht="27" customHeight="1"/>
-    <row r="38" spans="3:3" ht="27" customHeight="1"/>
-    <row r="39" spans="3:3" ht="27" customHeight="1"/>
-    <row r="40" spans="3:3" ht="27" customHeight="1"/>
-    <row r="41" spans="3:3" ht="27" customHeight="1"/>
-    <row r="42" spans="3:3" ht="27" customHeight="1"/>
+    <row r="36" spans="3:13" ht="27" customHeight="1">
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="27" customHeight="1"/>
+    <row r="38" spans="3:13" ht="27" customHeight="1"/>
+    <row r="39" spans="3:13" ht="27" customHeight="1"/>
+    <row r="40" spans="3:13" ht="27" customHeight="1"/>
+    <row r="41" spans="3:13" ht="27" customHeight="1"/>
+    <row r="42" spans="3:13" ht="27" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4242,10 +4271,10 @@
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" customHeight="1">
       <c r="G3" s="10" t="s">
@@ -4323,10 +4352,10 @@
       <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -4369,10 +4398,10 @@
       <c r="C12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="28.8" customHeight="1">
       <c r="G13" s="10" t="s">
@@ -4400,10 +4429,10 @@
       <c r="B15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="28.8" customHeight="1">
       <c r="G16" s="10" t="s">

--- a/file/description/moa.xlsx
+++ b/file/description/moa.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\manage\mainproject\moa\file\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBC798F-A157-4D40-A869-986BEACEBED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D1AC57-B16F-4A71-8491-0287E40C61F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E3A86AB-0D8E-4E15-BC29-72AAC41F35C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7E3A86AB-0D8E-4E15-BC29-72AAC41F35C6}"/>
   </bookViews>
   <sheets>
     <sheet name="ToDo" sheetId="1" r:id="rId1"/>
     <sheet name="활동" sheetId="2" r:id="rId2"/>
+    <sheet name="프로시저" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2494,7 +2495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="183">
   <si>
     <t>기능</t>
   </si>
@@ -2695,15 +2696,6 @@
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>Web Server(WS)</t>
-  </si>
-  <si>
-    <t>Apache</t>
-  </si>
-  <si>
-    <t>Web Application Server(WAS)</t>
   </si>
   <si>
     <t>Tomcat 10</t>
@@ -3167,6 +3159,124 @@
   </si>
   <si>
     <t>시큐리트 흐름, 구체적으로 클래스 흐름, 어떤 설정옵션이 있는지(영상 추천: 개발자 유미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적페이지를 돌려준다 (클라이언트의 요청에 대해 서버에서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적페이지를 랜더링 해서 정적페이지로 만듬, 요청에 대한 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Application Server(WAS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Server(WS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Persistence Application Programming Interface</t>
+  </si>
+  <si>
+    <t>자바로 DB 다룰수 있는 방법(접근하는 방법)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. JDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. JDBC Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Spring Data JPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryDSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java DataBase Connectivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain Specific Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member findById(Long id);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT m FROM Member m WHERE id = :id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM MEMBER WHERE id = 1 LIMIT 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 역순 정렬 원하는 개수만큼 잘 가져왓지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.inflearn.com/roadmaps/373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.inflearn.com/roadmaps/149</t>
+  </si>
+  <si>
+    <t>3시간 걸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3352,7 +3462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3443,6 +3553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3462,6 +3575,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1183405</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455484</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2DC5D1-7D3D-4CAD-81F3-D58805D54BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1183405" y="274319"/>
+          <a:ext cx="4263179" cy="2610911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400702</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>199183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA1A6B9-9FAA-4036-A70C-134FB17294AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249680" y="3106228"/>
+          <a:ext cx="4142122" cy="2617455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637054</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>398449</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B1A72E-38F8-4F96-B58B-9643B131F7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6281249" y="248243"/>
+          <a:ext cx="4434545" cy="2790532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30616</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332448</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE907F6-6576-46EB-AEFA-063FAA4678B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6342404" y="3163147"/>
+          <a:ext cx="4307389" cy="2693729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35331</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>212525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23281</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3037DC2-950B-42E2-9063-351445A006DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380627" y="5960451"/>
+          <a:ext cx="4023728" cy="2567364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>912</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744F0087-D032-462B-B2B2-4D760CAF0EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2307789" y="5840260"/>
+          <a:ext cx="3074347" cy="1868201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3761,10 +4143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8390CC7-2EE6-42EC-A4ED-2FBD6CEBFB8D}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A17" zoomScale="109" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3789,7 +4171,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -3809,7 +4191,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21.6" customHeight="1">
@@ -3979,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
@@ -4003,13 +4385,13 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="27" customHeight="1">
@@ -4018,7 +4400,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -4030,10 +4412,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="K20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" t="s">
         <v>102</v>
-      </c>
-      <c r="O20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="27" customHeight="1">
@@ -4041,10 +4423,10 @@
         <v>45348</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="27" customHeight="1">
@@ -4055,24 +4437,26 @@
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="27" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="J23" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
@@ -4081,14 +4465,14 @@
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
@@ -4100,7 +4484,7 @@
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -4132,7 +4516,7 @@
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -4147,7 +4531,7 @@
     </row>
     <row r="28" spans="1:15" ht="27" customHeight="1">
       <c r="C28" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -4162,74 +4546,170 @@
     <row r="29" spans="1:15" ht="27" customHeight="1"/>
     <row r="30" spans="1:15" ht="27" customHeight="1">
       <c r="C30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="27" customHeight="1">
       <c r="C31" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="27" customHeight="1">
       <c r="C32" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="27" customHeight="1">
       <c r="C33" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="3:13" ht="27" customHeight="1">
       <c r="M34" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="27" customHeight="1">
       <c r="C35" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="27" customHeight="1">
       <c r="C36" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="L36" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="3:13" ht="27" customHeight="1"/>
     <row r="38" spans="3:13" ht="27" customHeight="1"/>
     <row r="39" spans="3:13" ht="27" customHeight="1"/>
-    <row r="40" spans="3:13" ht="27" customHeight="1"/>
-    <row r="41" spans="3:13" ht="27" customHeight="1"/>
-    <row r="42" spans="3:13" ht="27" customHeight="1"/>
+    <row r="40" spans="3:13" ht="27" customHeight="1">
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="27" customHeight="1">
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" ht="27" customHeight="1">
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{7DDE5E8A-0E67-4C7A-A5F3-08D521A19AAB}"/>
+    <hyperlink ref="G41" r:id="rId2" xr:uid="{F42DF853-A067-4E66-A7CA-EC13C7A7877E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5C261C-80B3-4CE7-AE5D-E4D9BDD696B6}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" customHeight="1"/>
@@ -4243,25 +4723,25 @@
     <col min="9" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="28.8" customHeight="1">
+    <row r="1" spans="1:16" s="12" customFormat="1" ht="28.8" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
       <c r="F1" s="18"/>
       <c r="G1" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8" customHeight="1">
+    <row r="2" spans="1:16" ht="28.8" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4271,20 +4751,26 @@
       <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" customHeight="1">
       <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -4295,69 +4781,81 @@
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" customHeight="1">
+        <v>158</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" customHeight="1">
+      <c r="G9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -4365,13 +4863,13 @@
         <v>44</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
@@ -4379,16 +4877,16 @@
         <v>45</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
@@ -4396,261 +4894,261 @@
         <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" customHeight="1">
+      <c r="G13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="28.8" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" customHeight="1">
-      <c r="G13" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="10" t="s">
+    </row>
+    <row r="15" spans="1:16" ht="28.8" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:16" ht="28.8" customHeight="1">
+      <c r="G16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" customHeight="1">
-      <c r="G16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.8" customHeight="1">
       <c r="G19" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" customHeight="1">
       <c r="G21" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.8" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" customHeight="1">
       <c r="B25" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.8" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.8" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.8" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.8" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1">
       <c r="B35" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1">
       <c r="B37" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1">
       <c r="B40" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1">
       <c r="B41" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="28.8" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="28.8" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="28.8" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="28.8" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="28.8" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="28.8" customHeight="1">
       <c r="B49" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="28.8" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="28.8" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="28.8" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="28.8" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="28.8" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="28.8" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="28.8" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="28.8" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="28.8" customHeight="1">
       <c r="B60" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="28.8" customHeight="1">
       <c r="B61" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="28.8" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="28.8" customHeight="1">
       <c r="B63" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="28.8" customHeight="1">
       <c r="B65" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="28.8" customHeight="1">
       <c r="B68" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4662,5 +5160,1542 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A99AC43-1594-4E1D-BB2B-2AFD6169E135}">
+  <dimension ref="A1:K503"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="146" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="30"/>
+      <c r="D1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="30"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="30"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="30"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="30"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="30"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="30"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="30"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="30"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="30"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="30"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="30"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="30"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="30"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="30"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="30"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="30"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="30"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="30"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="30"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="30"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="30"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="30"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="30"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="30"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="30"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="30"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="30"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="30"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="30"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="30"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="30"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="30"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="30"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="30"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="30"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="30"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="30"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="30"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="30"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="30"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="30"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="30"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="30"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="30"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="30"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="30"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="30"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="30"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="30"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="30"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="30"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="30"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="30"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="30"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="30"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="30"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="30"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="30"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="30"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="30"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="30"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="30"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="30"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="30"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="30"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="30"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="30"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="30"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="30"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="30"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="30"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="30"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="30"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="30"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="30"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="30"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="30"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="30"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="30"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="30"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="30"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="30"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="30"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="30"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="30"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="30"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="30"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="30"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="30"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="30"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="30"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="30"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="30"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="30"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="30"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="30"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="30"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="30"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="30"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="30"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="30"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="30"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="30"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="30"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="30"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="30"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="30"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="30"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="30"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="30"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="30"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="30"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="30"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="30"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="30"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="30"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="30"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="30"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="30"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="30"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="30"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="30"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="30"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="30"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="30"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="30"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="30"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="30"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="30"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="30"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="30"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="30"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="30"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="30"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="30"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="30"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="30"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="30"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="30"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="30"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="30"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="30"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="30"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="30"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="30"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="30"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="30"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="30"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="30"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="30"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="30"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="30"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="30"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="30"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="30"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="30"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="30"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="30"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="30"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="30"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="30"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="30"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="30"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="30"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="30"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="30"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="30"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="30"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="30"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="30"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="30"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="30"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="30"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="30"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="30"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="30"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="30"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="30"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="30"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="30"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="30"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="30"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="30"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="30"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="30"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="30"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="30"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="30"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="30"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="30"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="30"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="30"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="30"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="30"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="30"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="30"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="30"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="30"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="30"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="30"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="30"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="30"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="30"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="30"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="30"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="30"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="30"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="30"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="30"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="30"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="30"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="30"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="30"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="30"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="30"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="30"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="30"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="30"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="30"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="30"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="30"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="30"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="30"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="30"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="30"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="30"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="30"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="30"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="30"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="30"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="30"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="30"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="30"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="30"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="30"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="30"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="30"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="30"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="30"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="30"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="30"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="30"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="30"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="30"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="30"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="30"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="30"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="30"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="30"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="30"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="30"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="30"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="30"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="30"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="30"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="30"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="30"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="30"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="30"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="30"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="30"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="30"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="30"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="30"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="30"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="30"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="30"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="30"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="30"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="30"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="30"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="30"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="30"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="30"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="30"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="30"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="30"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="30"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="30"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="30"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="30"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="30"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="30"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="30"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="30"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="30"/>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="30"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="30"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="30"/>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="30"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="30"/>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="30"/>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="30"/>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="30"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="30"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="30"/>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="30"/>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="30"/>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="30"/>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="30"/>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="30"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="30"/>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="30"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="30"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="30"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="30"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="30"/>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="30"/>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="30"/>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="30"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="30"/>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="30"/>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="30"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="30"/>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="30"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="30"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="30"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="30"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="30"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="30"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="30"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="30"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="30"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="30"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="30"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="30"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="30"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="30"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="30"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="30"/>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="30"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="30"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="30"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="30"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="30"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="30"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="30"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="30"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="30"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="30"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="30"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="30"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="30"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="30"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="30"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="30"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="30"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="30"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="30"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="30"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="30"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="30"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="30"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="30"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="30"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="30"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="30"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="30"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="30"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="30"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="30"/>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="30"/>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="30"/>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="30"/>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="30"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="30"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="30"/>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="30"/>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="30"/>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="30"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="30"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="30"/>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="30"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="30"/>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="30"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="30"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="30"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="30"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="30"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="30"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="30"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="30"/>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="30"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="30"/>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="30"/>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="30"/>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="30"/>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="30"/>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="30"/>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="30"/>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="30"/>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="30"/>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="30"/>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="30"/>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="30"/>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="30"/>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="30"/>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="30"/>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="30"/>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="30"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="30"/>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="30"/>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="30"/>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="30"/>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="30"/>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="30"/>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="30"/>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="30"/>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="30"/>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="30"/>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="30"/>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="30"/>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="30"/>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="30"/>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="30"/>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="30"/>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="30"/>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="30"/>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="30"/>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="30"/>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="30"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="30"/>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="30"/>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="30"/>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="30"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="30"/>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="30"/>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="30"/>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="30"/>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="30"/>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="30"/>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="30"/>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="30"/>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="30"/>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="30"/>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="30"/>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="30"/>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="30"/>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="30"/>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="30"/>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="30"/>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="30"/>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="30"/>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="30"/>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="30"/>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="30"/>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="30"/>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="30"/>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="30"/>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="30"/>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="30"/>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="30"/>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="30"/>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="30"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="30"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="30"/>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="30"/>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="30"/>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="30"/>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="30"/>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="30"/>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="30"/>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="30"/>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="30"/>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="30"/>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="30"/>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="30"/>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="30"/>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="30"/>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="30"/>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="30"/>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="30"/>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="30"/>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="30"/>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="30"/>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="30"/>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="30"/>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="30"/>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="30"/>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="30"/>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="30"/>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="30"/>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="30"/>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="30"/>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="30"/>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="30"/>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="30"/>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="30"/>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="30"/>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="30"/>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="30"/>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="30"/>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>